--- a/assignment all files/Book1.xlsx
+++ b/assignment all files/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amank\OneDrive\Desktop\learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amank\OneDrive\Desktop\assignment all files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2332075-C919-4B03-BF78-05DB10E3C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E48F5-4EE6-4D06-AED3-2453D96FE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5CB6C4D5-DA6B-4123-8CB8-0979174E9383}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{5CB6C4D5-DA6B-4123-8CB8-0979174E9383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="323">
   <si>
     <t>Ca'canny</t>
   </si>
@@ -601,6 +601,408 @@
   </si>
   <si>
     <t>pu</t>
+  </si>
+  <si>
+    <t>ਤੀਜਾ ਮਨੁੱਖ ਜਾਂ ਤੀਜੀ ਵਸਤੂ ਅਥਵਾ ਤੀਜੀ ਗੱਲ</t>
+  </si>
+  <si>
+    <t>ਧੀਮੀ ਚਾਲ</t>
+  </si>
+  <si>
+    <t>ਮੰਦ ਕਾਰਜ</t>
+  </si>
+  <si>
+    <t>ਮੁਸਲਮਾਨਾਂ ਦਾ ਧਰਮ-ਸਥਾਨ</t>
+  </si>
+  <si>
+    <t>ਯੱਕਾ</t>
+  </si>
+  <si>
+    <t>ਘੋੜਾ-ਗੱਡੀ</t>
+  </si>
+  <si>
+    <t>ਟੈਕਸੀ ਵਿਚ ਸਫ਼ਰ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t>ਬੱਘੀ ਵਾਲਾ</t>
+  </si>
+  <si>
+    <t>ਟੈਕਸੀ ਡਰਾਈਵਰ</t>
+  </si>
+  <si>
+    <t>ਗੰਢ-ਤੁੱਪ</t>
+  </si>
+  <si>
+    <t>ਗੋਂਦ</t>
+  </si>
+  <si>
+    <t>ਖੜਯੰਤਰ ਰਚਣਾ</t>
+  </si>
+  <si>
+    <t>ਸਾਜ਼ਸ਼ ਵਿਚ ਸ਼ਾਮਲ ਹੋਣਾ</t>
+  </si>
+  <si>
+    <t>ਖੜਯੰਤਰਕਾਰੀ</t>
+  </si>
+  <si>
+    <t>ਮੈਖਾਨਾ</t>
+  </si>
+  <si>
+    <t>ਰੈਸਤੋਰਾਂ ਵਿਚ ਨਾਚ ਰੰਗ (ਇੰਗਲੈਂਡ ਵਿਚ)</t>
+  </si>
+  <si>
+    <t>ਪੱਤ ਗੋਭੀ</t>
+  </si>
+  <si>
+    <t>ਰਹੱਸਵਾਦੀ ਵਿਆਖਿਆ</t>
+  </si>
+  <si>
+    <t>ਗੂੜ੍ਹੇ ਸਿਧਾਂਤ</t>
+  </si>
+  <si>
+    <t>ਰਹੱਸਵਾਦ</t>
+  </si>
+  <si>
+    <t>ਰਹੱਸਵਾਦੀ</t>
+  </si>
+  <si>
+    <t>ਯਹੂਦੀ ਗੋਝਵਾਦ ਸੰਬੰਧੀ</t>
+  </si>
+  <si>
+    <t>ਗੂੜ੍ਹ</t>
+  </si>
+  <si>
+    <t>ਮੁਗਦਰ</t>
+  </si>
+  <si>
+    <t>ਟੱਪਰੀ</t>
+  </si>
+  <si>
+    <t>ਕੁੱਲੀ</t>
+  </si>
+  <si>
+    <t>ਘੁਰਨੇ ਜਿਹੇ ਵਿਚ ਬੰਦ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t>ਛੋਟਾ ਕਮਰਾ</t>
+  </si>
+  <si>
+    <t>ਖਿਲਵਤਖਾਨਾ</t>
+  </si>
+  <si>
+    <t>ਵਜ਼ੀਰ</t>
+  </si>
+  <si>
+    <t>ਮਿਨਿਸਟਰ</t>
+  </si>
+  <si>
+    <t>ਮੰਤਰੀ-ਮੰਡਲ ਦੀ ਬੈਠਕ</t>
+  </si>
+  <si>
+    <t>ਤਰਖਾਣ</t>
+  </si>
+  <si>
+    <t>ਵਜ਼ਾਰਤਸਾਜ਼</t>
+  </si>
+  <si>
+    <t>ਸੰਗਲ</t>
+  </si>
+  <si>
+    <t>ਸੰਗਲੀ</t>
+  </si>
+  <si>
+    <t>ਰੱਸੀ ਕੱਸਣਾ</t>
+  </si>
+  <si>
+    <t>ਸਮੁੰਦਰੀ ਤਾਰ ਦੇਣਾ</t>
+  </si>
+  <si>
+    <t>ਕੇਬਲਗ੍ਰਾਮ</t>
+  </si>
+  <si>
+    <t>ਸੂਤਲੀ</t>
+  </si>
+  <si>
+    <t>ਵੱਟੀ ਹੋਈ ਪਤਲੀ ਰੱਸੀ</t>
+  </si>
+  <si>
+    <t>ਸਾਰੀਆਂ ਵਸਤਾਂ</t>
+  </si>
+  <si>
+    <t>ਗਾਰਡ ਦਾ ਡੱਬਾ</t>
+  </si>
+  <si>
+    <t>ਮਾਲ ਗੱਡੀ ਵਿਚ ਮਜ਼ਦੂਰਾਂ ਦਾ ਡੱਬਾ</t>
+  </si>
+  <si>
+    <t>ਸਾਹਿਲੀ ਵਪਾਰ</t>
+  </si>
+  <si>
+    <t>ਮੋਟਰਕਾਰ</t>
+  </si>
+  <si>
+    <t>ਖੁੱਲ੍ਹੀ ਮੋਟਰਕਾਰ</t>
+  </si>
+  <si>
+    <t>ਕੋਕੋ ਰੁੱਖ ਸੰਬੰਧੀ</t>
+  </si>
+  <si>
+    <t>ਕੋਕੋ ਰੁੱਖ</t>
+  </si>
+  <si>
+    <t>ਹੇਠਲੇ ਜਬਾੜ੍ਹੇ ਦੇ ਦੰਦਾਂ ਵਾਲੀ ਵ੍ਹੇਲ ਮੱਛੀ</t>
+  </si>
+  <si>
+    <t>ਮੱਛੀ</t>
+  </si>
+  <si>
+    <t>ਤਹਿਖਾਨਾ</t>
+  </si>
+  <si>
+    <t>ਚੋਰੀ ਰੱਖਣ ਲਈ ਥਾਂ</t>
+  </si>
+  <si>
+    <t>ਚੋਰਖਾਨੇ ਵਿਚ ਛੁਪਾਉਣਾ</t>
+  </si>
+  <si>
+    <t>ਢਿੱਲਾ</t>
+  </si>
+  <si>
+    <t>ਸਰੀਰਕ ਅਤੇ ਮਾਨਸਿਕ ਰੋਗੀ</t>
+  </si>
+  <si>
+    <t>ਖਾਸ ਨਿਸ਼ਾਨੀ</t>
+  </si>
+  <si>
+    <t>ਪੱਕੀ ਅੰਦਰਲੀ ਗਵਾਹੀ</t>
+  </si>
+  <si>
+    <t>ਦਿਮਾਗੀ ਕਮਜ਼ੋਰੀ</t>
+  </si>
+  <si>
+    <t>ਖਿੱਲੀ ਪਾਉਣਾ</t>
+  </si>
+  <si>
+    <t>ਜੋਰ ਨਾਲ ਹੱਸਣਾ</t>
+  </si>
+  <si>
+    <t>ਖਿੱਲੀ</t>
+  </si>
+  <si>
+    <t>ਜ਼ੋਰ ਦਾ ਹਾਸਾ</t>
+  </si>
+  <si>
+    <t>ਖਿੜਖਿੜਾਵਾਂ</t>
+  </si>
+  <si>
+    <t>ਹਾਸੇ ਭਰਪੂਰ</t>
+  </si>
+  <si>
+    <t>ਸਫੈਦ ਰਤਨ</t>
+  </si>
+  <si>
+    <t>ਸੁਗੰਧਤ ਗੋਲੀ (ਸਾਹ ਦੀ ਦੁਰਗੰਧ ਹਟਾਉਣ ਲਈ)</t>
+  </si>
+  <si>
+    <t>ਇਕ ਖੁਸ਼ਬੂਦਾਰ ਗੋਲੀ (ਮੂੰਹ ਵਿਚੋਂ ਸਿਗਰਟ</t>
+  </si>
+  <si>
+    <t>ਅਮਰੀਕਾ ਦੇ ਆਦਿ-ਵਾਸੀਆਂ ਦਾ ਸਰਦਾਰ</t>
+  </si>
+  <si>
+    <t>ਰਾਜਨੀਤਕ ਆਗੂ</t>
+  </si>
+  <si>
+    <t>ਸਰਦਾਰੀ</t>
+  </si>
+  <si>
+    <t>ਮੁਖੀਆ ਦੇ ਅਧੀਨ ਇਲਾਕਾਈ ਸ਼ਾਸਨ</t>
+  </si>
+  <si>
+    <t>ਯੱਕੜ</t>
+  </si>
+  <si>
+    <t>ਗੱਪ-ਸ਼ੱਪ</t>
+  </si>
+  <si>
+    <t>ਯੱਕੜ ਮਾਰਨੇ</t>
+  </si>
+  <si>
+    <t>ਉਰਲੀਆਂ-ਪਰਲੀਆਂ ਗੱਲਾਂ ਮਾਰਨੀਆਂ</t>
+  </si>
+  <si>
+    <t>ਬਕਵਾਸੀ</t>
+  </si>
+  <si>
+    <t>ਸ਼ੇਖੀਖੋਰਾ</t>
+  </si>
+  <si>
+    <t>ਬਕਵਾਸ</t>
+  </si>
+  <si>
+    <t>ਟੈਂ ਟੈਂ</t>
+  </si>
+  <si>
+    <t>ਪਰੇਤ</t>
+  </si>
+  <si>
+    <t>ਜਿੰਨ</t>
+  </si>
+  <si>
+    <t>ਬੁਰੀ ਵਾਦੀ</t>
+  </si>
+  <si>
+    <t>ਬਾਣ</t>
+  </si>
+  <si>
+    <t>ਅਸ਼ੁੱਧ ਲੇਖਕ</t>
+  </si>
+  <si>
+    <t>ਕੋਝੀ ਲਿਖਤ ਵਾਲਾ</t>
+  </si>
+  <si>
+    <t>ਭੈੜੀ ਲਿਖਤ</t>
+  </si>
+  <si>
+    <t>ਗ਼ਲਤ ਜੋੜਾਂ ਵਾਲੀ ਲਿਖਾਈ</t>
+  </si>
+  <si>
+    <t>ਫ਼ੌਜ ਵਿਚ ਜਖ਼ਮੀ ਹੋਏ ਫ਼ੌਜੀਆਂ ਨੂੰ ਢੋਣ ਵਾਲੀ ਪਾਲਕੀ</t>
+  </si>
+  <si>
+    <t>ਕੁਵਰਤੋਂ</t>
+  </si>
+  <si>
+    <t>ਦੁਰਪ੍ਰਯੋਗ</t>
+  </si>
+  <si>
+    <t>ਇਕ ਫਲੀ ਜੋ ਅਫਰੀਕਾ ਦੀ ਇਕ ਝਾੜੀ ਨੂੰ ਲੱਗਦੀ ਹੈ</t>
+  </si>
+  <si>
+    <t>ਬਦਅਵਾਜ਼</t>
+  </si>
+  <si>
+    <t>ਅੱਖੜ ਬੋਲ</t>
+  </si>
+  <si>
+    <t>ਖਰ੍ਹਵਾ ਬੋਲ</t>
+  </si>
+  <si>
+    <t>ਥੋਹਰ ਵਾਂਗ</t>
+  </si>
+  <si>
+    <t>ਨਾਗ ਫਣੀਆ</t>
+  </si>
+  <si>
+    <t>ਨਾਗ ਫਣੀ ਵਰਗਾ</t>
+  </si>
+  <si>
+    <t>ਨਾਗ ਫਣੀ</t>
+  </si>
+  <si>
+    <t>ਉਜੱਡ ਬੰਦਾ</t>
+  </si>
+  <si>
+    <t>ਬੱਸ ਦਾ ਕੰਡਕਟਰ</t>
+  </si>
+  <si>
+    <t>ਲਗਾਨੀ ਕੱਛ</t>
+  </si>
+  <si>
+    <t>ਜਮ੍ਹਾਬੰਦੀ ਖਾਤਾ</t>
+  </si>
+  <si>
+    <t>ਮੁਰਦਾ</t>
+  </si>
+  <si>
+    <t>ਲਾਸ਼</t>
+  </si>
+  <si>
+    <t>ਮੁਰਦੇ ਜਿਹਾ</t>
+  </si>
+  <si>
+    <t>ਮੁਰਦੇ ਵਾਂਗ ਪੀਲਾ</t>
+  </si>
+  <si>
+    <t>ਛੋਕਰਾ</t>
+  </si>
+  <si>
+    <t>ਫੀਤਾ</t>
+  </si>
+  <si>
+    <t>ਪੱਟੀ</t>
+  </si>
+  <si>
+    <t>ਉਜੱਡ</t>
+  </si>
+  <si>
+    <t>ਅਕੁਲੀਨ</t>
+  </si>
+  <si>
+    <t>ਲੈਬੱਧਤਾ ਅਲਾਪ</t>
+  </si>
+  <si>
+    <t>ਸੁਰ ਦਾ ਉਤਾਰ</t>
+  </si>
+  <si>
+    <t>ਨਵੀਂ ਪੀੜ੍ਹੀ</t>
+  </si>
+  <si>
+    <t>ਬੰਸ ਦੀ ਉਪਸ਼ਾਖਾ</t>
+  </si>
+  <si>
+    <t>ਅਵਾਜ਼ ਦਾ ਉਤਾਰ</t>
+  </si>
+  <si>
+    <t>ਅਲਾਪ ਦਾ ਅੰਤਲਾ ਲਮਕਾ</t>
+  </si>
+  <si>
+    <t>ਫ਼ੌਜੀ ਸਕੂਲ ਦਾ ਵਿਦਿਆਰਥੀ</t>
+  </si>
+  <si>
+    <t>ਸੈਨਾ ਸਿਖਿਆਰਥੀ</t>
+  </si>
+  <si>
+    <t>ਸੈਨਿਕ ਸਿਖਿਆ ਲੈਣ ਵਾਲੇ ਵਿਦਿਆਰਥੀਆਂ ਦੀ ਟੁਕੜੀ</t>
+  </si>
+  <si>
+    <t>ਮੰਗ ਤੁੰਗ ਕੇ ਗੁਜ਼ਾਰਾ ਕਰਨਾ</t>
+  </si>
+  <si>
+    <t>ਪਿੱਛੇ ਪਿੱਛੇ ਫਿਰਨਾ</t>
+  </si>
+  <si>
+    <t>ਪੱਲੇਦਾਰ</t>
+  </si>
+  <si>
+    <t>ਫੇਰੀ ਵਾਲਾ</t>
+  </si>
+  <si>
+    <t>ਮਹਿੰਗੀ ਜਿੱਤ</t>
+  </si>
+  <si>
+    <t>ਕਲੀ ਵਰਗੀ ਇਕ ਧਾਤ</t>
+  </si>
+  <si>
+    <t>ਵਿਉਂਤ</t>
+  </si>
+  <si>
+    <t>ਰੂਪ ਰੇਖਾ</t>
+  </si>
+  <si>
+    <t>ਚੋਬ</t>
+  </si>
+  <si>
+    <t>ਚਲਾਇਮਾਨਤਾ</t>
+  </si>
+  <si>
+    <t>ਨਾਸ਼ਮਾਨਤਾ</t>
+  </si>
+  <si>
+    <t>pu1</t>
+  </si>
+  <si>
+    <t>pu2</t>
   </si>
 </sst>
 </file>
@@ -988,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC20EF41-42F9-45A8-87D4-619D3D100699}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,18 +1405,24 @@
       <c r="B1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1023,17 +1431,23 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1043,28 +1457,38 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1073,18 +1497,26 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1093,18 +1525,24 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1113,18 +1551,24 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1133,7 +1577,9 @@
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1143,18 +1589,24 @@
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1173,7 +1625,9 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1183,7 +1637,9 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1193,8 +1649,12 @@
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -1206,14 +1666,16 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1223,8 +1685,12 @@
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -1233,17 +1699,23 @@
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1256,15 +1728,19 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -1273,8 +1749,12 @@
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -1283,17 +1763,23 @@
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1306,15 +1792,19 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1323,7 +1813,9 @@
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1333,17 +1825,23 @@
       <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1353,8 +1851,12 @@
       <c r="B36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
@@ -1363,7 +1865,9 @@
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1373,7 +1877,9 @@
       <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1386,15 +1892,19 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -1403,38 +1913,52 @@
       <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -1443,7 +1967,9 @@
       <c r="B45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1453,8 +1979,12 @@
       <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -1463,8 +1993,12 @@
       <c r="B47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -1473,48 +2007,66 @@
       <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -1523,18 +2075,26 @@
       <c r="B53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
@@ -1543,8 +2103,12 @@
       <c r="B55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
@@ -1553,8 +2117,12 @@
       <c r="B56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
@@ -1563,8 +2131,12 @@
       <c r="B57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
@@ -1583,7 +2155,9 @@
       <c r="B59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1593,8 +2167,12 @@
       <c r="B60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -1606,34 +2184,44 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1643,17 +2231,23 @@
       <c r="B65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1663,7 +2257,9 @@
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1673,17 +2269,23 @@
       <c r="B68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1693,17 +2295,21 @@
       <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1713,7 +2319,9 @@
       <c r="B72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1723,8 +2331,12 @@
       <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
@@ -1743,17 +2355,21 @@
       <c r="B75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1763,8 +2379,12 @@
       <c r="B77" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
@@ -1783,8 +2403,12 @@
       <c r="B79" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
@@ -1793,7 +2417,9 @@
       <c r="B80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1803,8 +2429,12 @@
       <c r="B81" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
@@ -1813,8 +2443,12 @@
       <c r="B82" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
@@ -1826,15 +2460,19 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -1843,8 +2481,12 @@
       <c r="B85" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
@@ -1856,34 +2498,44 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1896,15 +2548,19 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -1913,8 +2569,12 @@
       <c r="B92" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
@@ -1923,7 +2583,9 @@
       <c r="B93" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1943,7 +2605,9 @@
       <c r="B95" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1963,8 +2627,12 @@
       <c r="B97" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
@@ -1973,7 +2641,9 @@
       <c r="B98" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1983,8 +2653,16 @@
       <c r="B99" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
